--- a/시장분석용_정보/시장분석용_4889034000.xlsx
+++ b/시장분석용_정보/시장분석용_4889034000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,46 +160,91 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
-    <t>202006 6119028605</t>
-  </si>
-  <si>
-    <t>202007 6119028605</t>
-  </si>
-  <si>
-    <t>202009 6119028605</t>
-  </si>
-  <si>
-    <t>202010 6119028605</t>
-  </si>
-  <si>
-    <t>202101 6119028605</t>
-  </si>
-  <si>
-    <t>202103 6119028605</t>
-  </si>
-  <si>
-    <t>202104 6119028605</t>
-  </si>
-  <si>
-    <t>202105 6119028605</t>
-  </si>
-  <si>
-    <t>202107 6119028605</t>
-  </si>
-  <si>
-    <t>202108 6119028605</t>
-  </si>
-  <si>
-    <t>202205 6119028605</t>
-  </si>
-  <si>
-    <t>천야로의원</t>
-  </si>
-  <si>
-    <t>경상남도 합천군 야로면 가야산로 349-5</t>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
+    <t>6119028605 202006</t>
+  </si>
+  <si>
+    <t>6119028605 202007</t>
+  </si>
+  <si>
+    <t>6119028605 202009</t>
+  </si>
+  <si>
+    <t>6119028605 202010</t>
+  </si>
+  <si>
+    <t>6119028605 202101</t>
+  </si>
+  <si>
+    <t>6119028605 202103</t>
+  </si>
+  <si>
+    <t>6119028605 202104</t>
+  </si>
+  <si>
+    <t>6119028605 202105</t>
+  </si>
+  <si>
+    <t>6119028605 202107</t>
+  </si>
+  <si>
+    <t>6119028605 202108</t>
+  </si>
+  <si>
+    <t>6119028605 202205</t>
   </si>
   <si>
     <t>JDQ4MTYyMiM4MSMkMiMkNCMkMDAkMzgxOTYxIzIxIyQyIyQ1IyQwMCQ0NjE0ODEjNTEjJDEjJDYjJDgz</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t>천 야로의원</t>
+  </si>
+  <si>
+    <t>경상남도 합천군 야로면 가야산로 349-5 ()</t>
   </si>
   <si>
     <t>일반의원</t>
@@ -512,13 +605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:BK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,43 +708,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>110635</v>
+        <v>16174</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2">
         <v>202006</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>73162695</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>6119028605</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J2">
+        <v>4889034000</v>
+      </c>
+      <c r="K2">
         <v>21.55757575757576</v>
       </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2">
-        <v>4889034000</v>
+      <c r="L2" t="s">
+        <v>77</v>
       </c>
       <c r="M2">
         <v>448674</v>
@@ -663,7 +846,7 @@
         <v>27667</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -675,84 +858,174 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>94.22</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>52.05</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>47.95</v>
       </c>
-      <c r="X2">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>47.95</v>
+      </c>
+      <c r="AN2">
         <v>52.05</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>52.05</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
         <v>47.95</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>47.95</v>
+      </c>
+      <c r="BB2">
+        <v>52.05</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>132342</v>
+        <v>18948</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3">
         <v>202007</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>73162695</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>6119028605</v>
       </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J3">
+        <v>4889034000</v>
+      </c>
+      <c r="K3">
         <v>21.55757575757576</v>
       </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3">
-        <v>4889034000</v>
+      <c r="L3" t="s">
+        <v>77</v>
       </c>
       <c r="M3">
         <v>1521685</v>
@@ -764,7 +1037,7 @@
         <v>99133</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -782,22 +1055,22 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>78.48</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>21.52</v>
       </c>
       <c r="X3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>21.52</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>78.48</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -806,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -817,43 +1090,133 @@
       <c r="AG3">
         <v>0</v>
       </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>100</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>100</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>100</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>100</v>
+      </c>
+      <c r="BH3">
+        <v>100</v>
+      </c>
+      <c r="BI3">
+        <v>100</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>175771</v>
+        <v>24496</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4">
         <v>202009</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>73162695</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>6119028605</v>
       </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J4">
+        <v>4889034000</v>
+      </c>
+      <c r="K4">
         <v>21.55757575757576</v>
       </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4">
-        <v>4889034000</v>
+      <c r="L4" t="s">
+        <v>77</v>
       </c>
       <c r="M4">
         <v>985306</v>
@@ -865,7 +1228,7 @@
         <v>64267</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -877,29 +1240,29 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>33.61</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="W4">
+        <v>33.2</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>33.61</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>66.39</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
       <c r="AB4">
         <v>0</v>
       </c>
@@ -907,54 +1270,144 @@
         <v>0</v>
       </c>
       <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>33.61</v>
+      </c>
+      <c r="AN4">
         <v>66.39</v>
       </c>
-      <c r="AE4">
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>66.39</v>
+      </c>
+      <c r="AU4">
         <v>33.61</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>66.39</v>
+      </c>
+      <c r="BA4">
+        <v>33.61</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>66.39</v>
+      </c>
+      <c r="BH4">
+        <v>66.39</v>
+      </c>
+      <c r="BI4">
+        <v>66.39</v>
+      </c>
+      <c r="BJ4">
+        <v>50</v>
+      </c>
+      <c r="BK4">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>197503</v>
+        <v>27290</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5">
         <v>202010</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>73162695</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>6119028605</v>
       </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J5">
+        <v>4889034000</v>
+      </c>
+      <c r="K5">
         <v>21.55757575757576</v>
       </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5">
-        <v>4889034000</v>
+      <c r="L5" t="s">
+        <v>77</v>
       </c>
       <c r="M5">
         <v>1094510</v>
@@ -966,7 +1419,7 @@
         <v>53500</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -975,87 +1428,177 @@
         <v>0</v>
       </c>
       <c r="S5">
+        <v>31.5</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>4.49</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
-        <v>0</v>
+        <v>31.87</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>32.15</v>
       </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>35.98</v>
+      </c>
+      <c r="AA5">
+        <v>64.02</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>4.49</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
         <v>95.51000000000001</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>4.49</v>
       </c>
-      <c r="AD5">
+      <c r="AT5">
         <v>95.51000000000001</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="BA5">
+        <v>4.49</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>4.49</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="BH5">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="BI5">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="BJ5">
+        <v>50</v>
+      </c>
+      <c r="BK5">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>262878</v>
+        <v>35659</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
         <v>202101</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2021</v>
       </c>
-      <c r="E6">
-        <v>73162695</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>6119028605</v>
       </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J6">
+        <v>4889034000</v>
+      </c>
+      <c r="K6">
         <v>21.55757575757576</v>
       </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6">
-        <v>4889034000</v>
+      <c r="L6" t="s">
+        <v>77</v>
       </c>
       <c r="M6">
         <v>1357649</v>
@@ -1067,7 +1610,7 @@
         <v>133750</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1076,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>61.87</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1088,75 +1631,165 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>38.13</v>
       </c>
       <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>61.87</v>
+      </c>
+      <c r="AA6">
         <v>38.13</v>
       </c>
-      <c r="Y6">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>38.13</v>
+      </c>
+      <c r="AO6">
         <v>61.87</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
         <v>38.13</v>
       </c>
-      <c r="AE6">
+      <c r="AU6">
         <v>61.87</v>
       </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>38.13</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>61.87</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>100</v>
+      </c>
+      <c r="BH6">
+        <v>100</v>
+      </c>
+      <c r="BI6">
+        <v>100</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>306519</v>
+        <v>41245</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7">
         <v>202103</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2021</v>
       </c>
-      <c r="E7">
-        <v>73162695</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>6119028605</v>
       </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J7">
+        <v>4889034000</v>
+      </c>
+      <c r="K7">
         <v>21.55757575757576</v>
       </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7">
-        <v>4889034000</v>
+      <c r="L7" t="s">
+        <v>77</v>
       </c>
       <c r="M7">
         <v>623853</v>
@@ -1171,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1192,14 +1825,14 @@
         <v>0</v>
       </c>
       <c r="X7">
+        <v>100</v>
+      </c>
+      <c r="Y7">
         <v>11.89</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>88.11</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
       <c r="AA7">
         <v>0</v>
       </c>
@@ -1210,54 +1843,144 @@
         <v>0</v>
       </c>
       <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>11.89</v>
+      </c>
+      <c r="AO7">
         <v>88.11</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>88.11</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
         <v>11.89</v>
       </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>11.89</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>88.11</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>100</v>
+      </c>
+      <c r="BH7">
+        <v>100</v>
+      </c>
+      <c r="BI7">
+        <v>100</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>328470</v>
+        <v>44044</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8">
         <v>202104</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2021</v>
       </c>
-      <c r="E8">
-        <v>73162695</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>6119028605</v>
       </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J8">
+        <v>4889034000</v>
+      </c>
+      <c r="K8">
         <v>21.55757575757576</v>
       </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8">
-        <v>4889034000</v>
+      <c r="L8" t="s">
+        <v>77</v>
       </c>
       <c r="M8">
         <v>1102197</v>
@@ -1272,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1281,84 +2004,174 @@
         <v>0</v>
       </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>100</v>
+      </c>
+      <c r="Y8">
+        <v>51.78</v>
+      </c>
+      <c r="Z8">
         <v>48.22</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>48.22</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>51.78</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>48.22</v>
       </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
         <v>51.78</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>51.78</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>48.22</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>48.22</v>
+      </c>
+      <c r="BH8">
+        <v>48.22</v>
+      </c>
+      <c r="BI8">
+        <v>48.22</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>350471</v>
+        <v>46850</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9">
         <v>202105</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2021</v>
       </c>
-      <c r="E9">
-        <v>73162695</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>6119028605</v>
       </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J9">
+        <v>4889034000</v>
+      </c>
+      <c r="K9">
         <v>21.55757575757576</v>
       </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9">
-        <v>4889034000</v>
+      <c r="L9" t="s">
+        <v>77</v>
       </c>
       <c r="M9">
         <v>921788</v>
@@ -1370,7 +2183,7 @@
         <v>85900</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1379,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>59.25</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1394,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>59.25</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
       <c r="AA9">
-        <v>0</v>
+        <v>40.75</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1412,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1423,43 +2236,133 @@
       <c r="AG9">
         <v>0</v>
       </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>40.75</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>59.25</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>100</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>40.75</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>59.25</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>394644</v>
+        <v>52482</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10">
         <v>202107</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2021</v>
       </c>
-      <c r="E10">
-        <v>73162695</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>6119028605</v>
       </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J10">
+        <v>4889034000</v>
+      </c>
+      <c r="K10">
         <v>21.55757575757576</v>
       </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10">
-        <v>4889034000</v>
+      <c r="L10" t="s">
+        <v>77</v>
       </c>
       <c r="M10">
         <v>485828</v>
@@ -1471,7 +2374,7 @@
         <v>48350</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1486,81 +2389,171 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>25.75</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
         <v>74.25</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
         <v>74.25</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
         <v>25.75</v>
       </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>25.75</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>74.25</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>74.25</v>
+      </c>
+      <c r="BH10">
+        <v>74.25</v>
+      </c>
+      <c r="BI10">
+        <v>74.25</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>416757</v>
+        <v>55306</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11">
         <v>202108</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2021</v>
       </c>
-      <c r="E11">
-        <v>73162695</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>6119028605</v>
       </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J11">
+        <v>4889034000</v>
+      </c>
+      <c r="K11">
         <v>21.55757575757576</v>
       </c>
-      <c r="K11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11">
-        <v>4889034000</v>
+      <c r="L11" t="s">
+        <v>77</v>
       </c>
       <c r="M11">
         <v>625607</v>
@@ -1572,20 +2565,20 @@
         <v>62450</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>96.08</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>3.92</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
         <v>0</v>
       </c>
@@ -1596,72 +2589,162 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>96.08</v>
       </c>
       <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>100</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>3.92</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
         <v>96.08</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>3.92</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>96.08</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>3.92</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>96.08</v>
+      </c>
+      <c r="BD11">
+        <v>3.92</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>96.08</v>
+      </c>
+      <c r="BH11">
+        <v>96.08</v>
+      </c>
+      <c r="BI11">
+        <v>96.08</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>617330</v>
+        <v>80813</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12">
         <v>202205</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2022</v>
       </c>
-      <c r="E12">
-        <v>73162695</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>6119028605</v>
       </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J12">
+        <v>4889034000</v>
+      </c>
+      <c r="K12">
         <v>21.55757575757576</v>
       </c>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12">
-        <v>4889034000</v>
+      <c r="L12" t="s">
+        <v>77</v>
       </c>
       <c r="M12">
         <v>338975</v>
@@ -1673,10 +2756,10 @@
         <v>33150</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>93.67</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>6.33</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1688,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>93.67</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1697,13 +2780,13 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>100</v>
+        <v>6.33</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1715,15 +2798,105 @@
         <v>0</v>
       </c>
       <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>100</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
         <v>93.67</v>
       </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
         <v>6.33</v>
       </c>
-      <c r="AG12">
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>100</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
         <v>0</v>
       </c>
     </row>

--- a/시장분석용_정보/시장분석용_4889034000.xlsx
+++ b/시장분석용_정보/시장분석용_4889034000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>16174</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202006</v>
@@ -696,10 +600,10 @@
         <v>6119028605</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4889034000</v>
@@ -708,7 +612,7 @@
         <v>21.55757575757576</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>448674</v>
@@ -720,7 +624,7 @@
         <v>27667</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -732,105 +636,57 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>5.78</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>94.22</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>47.95</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>52.05</v>
       </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>52.05</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>47.95</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>47.95</v>
-      </c>
-      <c r="AM2">
-        <v>52.05</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>52.05</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>47.95</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>18948</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202007</v>
@@ -842,10 +698,10 @@
         <v>6119028605</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4889034000</v>
@@ -854,7 +710,7 @@
         <v>21.55757575757576</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>1521685</v>
@@ -866,40 +722,40 @@
         <v>99133</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>100</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>78.48</v>
-      </c>
-      <c r="V3">
-        <v>21.52</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>21.52</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>78.48</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -908,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -919,64 +775,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>100</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>100</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>24496</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202009</v>
@@ -988,10 +796,10 @@
         <v>6119028605</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4889034000</v>
@@ -1000,7 +808,7 @@
         <v>21.55757575757576</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>985306</v>
@@ -1012,7 +820,7 @@
         <v>64267</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1024,105 +832,57 @@
         <v>0</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>33.61</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>33.2</v>
-      </c>
-      <c r="V4">
-        <v>33.2</v>
-      </c>
       <c r="W4">
-        <v>0</v>
+        <v>66.39</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>66.39</v>
+      </c>
+      <c r="AD4">
         <v>33.61</v>
       </c>
-      <c r="Z4">
-        <v>66.39</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>33.61</v>
-      </c>
-      <c r="AM4">
-        <v>66.39</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>66.39</v>
-      </c>
-      <c r="AT4">
-        <v>33.61</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>27290</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202010</v>
@@ -1134,10 +894,10 @@
         <v>6119028605</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4889034000</v>
@@ -1146,7 +906,7 @@
         <v>21.55757575757576</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>1094510</v>
@@ -1158,7 +918,7 @@
         <v>53500</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1167,40 +927,40 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>31.5</v>
+        <v>4.49</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>95.51000000000001</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>4.49</v>
       </c>
-      <c r="U5">
-        <v>31.87</v>
-      </c>
-      <c r="V5">
-        <v>32.15</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>35.98</v>
-      </c>
-      <c r="Z5">
-        <v>64.02</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
       <c r="AC5">
-        <v>0</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1211,64 +971,16 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>4.49</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>95.51000000000001</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>4.49</v>
-      </c>
-      <c r="AS5">
-        <v>95.51000000000001</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>35659</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202101</v>
@@ -1280,10 +992,10 @@
         <v>6119028605</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4889034000</v>
@@ -1292,7 +1004,7 @@
         <v>21.55757575757576</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>1357649</v>
@@ -1304,7 +1016,7 @@
         <v>133750</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1313,108 +1025,60 @@
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>38.13</v>
+      </c>
+      <c r="X6">
         <v>61.87</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
         <v>38.13</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
+      <c r="AD6">
         <v>61.87</v>
       </c>
-      <c r="Z6">
-        <v>38.13</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>38.13</v>
-      </c>
-      <c r="AN6">
-        <v>61.87</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>38.13</v>
-      </c>
-      <c r="AT6">
-        <v>61.87</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>41245</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202103</v>
@@ -1426,10 +1090,10 @@
         <v>6119028605</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4889034000</v>
@@ -1438,7 +1102,7 @@
         <v>21.55757575757576</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>623853</v>
@@ -1453,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1474,93 +1138,45 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>100</v>
+        <v>11.89</v>
       </c>
       <c r="X7">
+        <v>88.11</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>88.11</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>11.89</v>
       </c>
-      <c r="Y7">
-        <v>88.11</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>11.89</v>
-      </c>
-      <c r="AN7">
-        <v>88.11</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>88.11</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>11.89</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>44044</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202104</v>
@@ -1572,10 +1188,10 @@
         <v>6119028605</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4889034000</v>
@@ -1584,7 +1200,7 @@
         <v>21.55757575757576</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>1102197</v>
@@ -1599,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1608,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>48.22</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1617,96 +1233,48 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>51.78</v>
       </c>
       <c r="W8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>48.22</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>51.78</v>
       </c>
-      <c r="Y8">
-        <v>48.22</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>48.22</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>51.78</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>48.22</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>51.78</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>46850</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202105</v>
@@ -1718,10 +1286,10 @@
         <v>6119028605</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4889034000</v>
@@ -1730,7 +1298,7 @@
         <v>21.55757575757576</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>921788</v>
@@ -1742,7 +1310,7 @@
         <v>85900</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1751,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>59.25</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1766,16 +1334,16 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>59.25</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>59.25</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>40.75</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1784,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1795,64 +1363,16 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>40.75</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>59.25</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>100</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>52482</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202107</v>
@@ -1864,10 +1384,10 @@
         <v>6119028605</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4889034000</v>
@@ -1876,7 +1396,7 @@
         <v>21.55757575757576</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>485828</v>
@@ -1888,7 +1408,7 @@
         <v>48350</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1903,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>25.75</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>74.25</v>
       </c>
       <c r="Y10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1930,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>74.25</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1939,66 +1459,18 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
         <v>25.75</v>
       </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>74.25</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>74.25</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>25.75</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>55306</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202108</v>
@@ -2010,10 +1482,10 @@
         <v>6119028605</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4889034000</v>
@@ -2022,7 +1494,7 @@
         <v>21.55757575757576</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>625607</v>
@@ -2034,50 +1506,50 @@
         <v>62450</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>3.92</v>
       </c>
-      <c r="P11">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>96.08</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
         <v>3.92</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
+      <c r="AC11">
         <v>96.08</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>100</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
       <c r="AD11">
         <v>0</v>
       </c>
@@ -2087,64 +1559,16 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>3.92</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>96.08</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>3.92</v>
-      </c>
-      <c r="AS11">
-        <v>96.08</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>80813</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202205</v>
@@ -2156,10 +1580,10 @@
         <v>6119028605</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4889034000</v>
@@ -2168,7 +1592,7 @@
         <v>21.55757575757576</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>338975</v>
@@ -2180,105 +1604,57 @@
         <v>33150</v>
       </c>
       <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
         <v>93.67</v>
       </c>
-      <c r="P12">
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
         <v>6.33</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>93.67</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>6.33</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>100</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
       <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>100</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>93.67</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>6.33</v>
-      </c>
-      <c r="AV12">
         <v>0</v>
       </c>
     </row>
